--- a/templates/QARSF/AR_ForeignCurrency.xlsx
+++ b/templates/QARSF/AR_ForeignCurrency.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\Provar\WS_RSAutomation\rsqasampleproj\templates\QARSF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\Provar\RSTK_AutomationOrg\rsqasampleproj\templates\QARSF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77389C6F-C24A-4172-83F7-F53E0AFFA2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF5B718-DACF-4E61-915B-E0B1B14F6BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="300" windowWidth="15375" windowHeight="7875" tabRatio="761" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="761" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddHeader" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
   <si>
     <t>API Mode</t>
   </si>
@@ -105,9 +105,6 @@
     <t>a7O410000004Nwj</t>
   </si>
   <si>
-    <t>a5B41000000PRNX</t>
-  </si>
-  <si>
     <t>a811K000000k9cL</t>
   </si>
   <si>
@@ -135,15 +132,9 @@
     <t>Packaging Amount</t>
   </si>
   <si>
-    <t>Cust-Dollar WF1 (8)</t>
-  </si>
-  <si>
     <t>Bank Account</t>
   </si>
   <si>
-    <t>B of A</t>
-  </si>
-  <si>
     <t>Deposit Amount Bank</t>
   </si>
   <si>
@@ -157,13 +148,28 @@
   </si>
   <si>
     <t>Check</t>
+  </si>
+  <si>
+    <t>a5B410000004My9</t>
+  </si>
+  <si>
+    <t>BC-INR</t>
+  </si>
+  <si>
+    <t>SR-INR</t>
+  </si>
+  <si>
+    <t>a5B410000004My9EAE</t>
+  </si>
+  <si>
+    <t>CustomerID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +196,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -211,11 +235,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,7 +525,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,10 +575,10 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -569,7 +595,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I2"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,13 +647,13 @@
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -644,13 +670,13 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -688,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -732,13 +758,13 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -776,13 +802,13 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -811,13 +837,13 @@
         <v>20</v>
       </c>
       <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -833,6 +859,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1001,40 +1028,44 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C10D85-D20E-4C13-9DFC-4F2EB5FB623F}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>33</v>
       </c>
       <c r="B2">
         <v>450</v>
@@ -1042,14 +1073,17 @@
       <c r="C2">
         <v>100</v>
       </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2">
         <v>450</v>
       </c>
-      <c r="F2" t="s">
-        <v>38</v>
+      <c r="G2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
